--- a/docs/画面項目定義書/イメージ管理ダッシュボード.xlsx
+++ b/docs/画面項目定義書/イメージ管理ダッシュボード.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589E69D3-C02B-4928-B30A-CBABE31BB8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FEC122-7C68-4D23-937A-7A514C27AA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>日本工学院</t>
   </si>
@@ -95,20 +95,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>削除ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>削除</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>イメージ追加</t>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
@@ -116,19 +102,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>行の情報を削除</t>
-    <rPh sb="0" eb="1">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>イメージ追加モーダルを表示</t>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
@@ -140,36 +113,87 @@
   </si>
   <si>
     <t>イメージ名</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>イメージ名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>繰り返しイメージ名</t>
-    <rPh sb="0" eb="1">
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>ク</t>
     </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>操作ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>繰り返しで表示、削除ボタンを表示</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>登録日</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
     <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>最新のイメージを取得し、繰り返し表示。</t>
-    <rPh sb="12" eb="13">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カエ</t>
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>登録日</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -495,13 +519,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -600,6 +620,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1052,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1067,415 +1097,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="13">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="14">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="13">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13">
-      <c r="A7" s="6"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="19"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="13">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="13">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>2</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7" ht="13">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13">
+      <c r="A12" s="28">
+        <v>4</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36" t="s">
+      <c r="C12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13">
-      <c r="A12" s="30">
-        <v>4</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="32" t="s">
+    <row r="13" spans="1:7" ht="13">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13">
+      <c r="A16" s="31">
+        <v>11</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:7" ht="13">
+      <c r="A17" s="31">
         <v>12</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13">
-      <c r="A13" s="23">
-        <v>5</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="35"/>
-    </row>
-    <row r="14" spans="1:7" ht="13">
-      <c r="A14" s="30">
-        <v>6</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13">
-      <c r="A15" s="23">
-        <v>7</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:7" ht="13">
-      <c r="A16" s="30">
-        <v>8</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" ht="13">
-      <c r="A17" s="23">
-        <v>9</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" ht="13">
-      <c r="A18" s="30">
-        <v>10</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="A18" s="31">
+        <v>13</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="13">
-      <c r="A19" s="23">
-        <v>11</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="A19" s="31">
+        <v>14</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" ht="13">
-      <c r="A20" s="30">
-        <v>12</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="A20" s="31">
+        <v>15</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="13">
-      <c r="A21" s="23">
+      <c r="A21" s="31">
         <v>13</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" ht="13">
-      <c r="A22" s="30">
+      <c r="A22" s="28">
         <v>14</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="13">
-      <c r="A23" s="23">
+      <c r="A23" s="21">
         <v>15</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="13">
-      <c r="A24" s="30">
+      <c r="A24" s="28">
         <v>16</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="13">
-      <c r="A25" s="23">
+      <c r="A25" s="21">
         <v>17</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:7" ht="13">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="13">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" ht="13">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="13">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A31" s="40"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
+      <c r="A33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
+      <c r="A34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
+      <c r="A35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
+      <c r="A36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
